--- a/Coursework - Commercial/activation_func_tst_results.xlsx
+++ b/Coursework - Commercial/activation_func_tst_results.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoro/Google Drive/MSc/2019-20/Neural Computing/Coursework - Commercial/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B6EC1-DA8E-CE49-8259-FABEF57CDCD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="9840" yWindow="460" windowWidth="32280" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="trn_results" sheetId="4" r:id="rId5"/>
-    <sheet name="val_results" sheetId="5" r:id="rId7"/>
-    <sheet name="tst_results" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="trn_results" sheetId="4" r:id="rId4"/>
+    <sheet name="val_results" sheetId="5" r:id="rId5"/>
+    <sheet name="tst_results" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="26">
-  <si>
-    <t>configuration_1</t>
-  </si>
-  <si>
-    <t>Activation Func: purelin</t>
-  </si>
-  <si>
-    <t>Activation Func: logsig</t>
-  </si>
-  <si>
-    <t>Activation Func: tansig</t>
-  </si>
-  <si>
-    <t>configuration_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>TPR</t>
   </si>
@@ -101,22 +93,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -124,172 +122,515 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7128"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M10"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="true"/>
-    <col min="2" max="2" width="4.42578125" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="5.140625" customWidth="true"/>
-    <col min="10" max="10" width="5.140625" customWidth="true"/>
-    <col min="11" max="11" width="5.140625" customWidth="true"/>
-    <col min="12" max="12" width="5.140625" customWidth="true"/>
-    <col min="13" max="13" width="5.140625" customWidth="true"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="13" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="1">
-        <v>0.74104262183732383</v>
+        <v>0.7539480387162506</v>
       </c>
       <c r="C2">
-        <v>0.85955487336914815</v>
+        <v>0.85326170376055255</v>
       </c>
       <c r="D2">
-        <v>0.82667171812843343</v>
+        <v>0.82283172720533726</v>
       </c>
       <c r="E2">
-        <v>0.78596491228070176</v>
+        <v>0.79323630136986301</v>
       </c>
       <c r="F2">
-        <v>0.25895737816267617</v>
+        <v>0.24605196128374937</v>
       </c>
       <c r="G2">
-        <v>0.14044512663085187</v>
+        <v>0.14673829623944742</v>
       </c>
       <c r="H2">
-        <v>0.80328926152853919</v>
+        <v>0.80611093195743311</v>
       </c>
       <c r="I2">
-        <v>4364</v>
+        <v>4440</v>
       </c>
       <c r="J2">
-        <v>915</v>
+        <v>956</v>
       </c>
       <c r="K2">
-        <v>5600</v>
+        <v>5559</v>
       </c>
       <c r="L2">
-        <v>1525</v>
+        <v>1449</v>
       </c>
       <c r="M2">
         <v>1459</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -325,50 +666,50 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>0.75241976566479873</v>
+        <v>0.74087281372049585</v>
       </c>
       <c r="C4">
-        <v>0.86201074443591708</v>
+        <v>0.87045280122793556</v>
       </c>
       <c r="D4">
-        <v>0.83133208255159474</v>
+        <v>0.83791050508930287</v>
       </c>
       <c r="E4">
-        <v>0.79389312977099236</v>
+        <v>0.78796720855912183</v>
       </c>
       <c r="F4">
-        <v>0.24758023433520121</v>
+        <v>0.25912718627950415</v>
       </c>
       <c r="G4">
-        <v>0.1379892555640829</v>
+        <v>0.12954719877206447</v>
       </c>
       <c r="H4">
-        <v>0.80998065140277331</v>
+        <v>0.80893260238632703</v>
       </c>
       <c r="I4">
-        <v>4431</v>
+        <v>4363</v>
       </c>
       <c r="J4">
-        <v>899</v>
+        <v>844</v>
       </c>
       <c r="K4">
-        <v>5616</v>
+        <v>5671</v>
       </c>
       <c r="L4">
-        <v>1458</v>
+        <v>1526</v>
       </c>
       <c r="M4">
         <v>1383</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -404,9 +745,9 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -442,91 +783,91 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0.69077941925624042</v>
+        <v>0.84717269485481406</v>
       </c>
       <c r="C7">
-        <v>0.8181120491174213</v>
+        <v>0.429623944742901</v>
       </c>
       <c r="D7">
-        <v>0.7744146202170189</v>
+        <v>0.57311889718552556</v>
       </c>
       <c r="E7">
-        <v>0.74535030065725072</v>
+        <v>0.75669099756690994</v>
       </c>
       <c r="F7">
-        <v>0.30922058074375958</v>
+        <v>0.15282730514518594</v>
       </c>
       <c r="G7">
-        <v>0.18188795088257867</v>
+        <v>0.570376055257099</v>
       </c>
       <c r="H7">
-        <v>0.75765881973556914</v>
+        <v>0.62786198000644955</v>
       </c>
       <c r="I7">
-        <v>4068</v>
+        <v>4989</v>
       </c>
       <c r="J7">
-        <v>1185</v>
+        <v>3716</v>
       </c>
       <c r="K7">
-        <v>5330</v>
+        <v>2799</v>
       </c>
       <c r="L7">
-        <v>1821</v>
+        <v>900</v>
       </c>
       <c r="M7">
         <v>1783</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>0.73747665138393614</v>
+        <v>0.739174732552216</v>
       </c>
       <c r="C8">
-        <v>0.86569455103607063</v>
+        <v>0.8615502686108979</v>
       </c>
       <c r="D8">
-        <v>0.83231123035645838</v>
+        <v>0.8283539486203616</v>
       </c>
       <c r="E8">
-        <v>0.78485944892847204</v>
+        <v>0.78514477549307593</v>
       </c>
       <c r="F8">
-        <v>0.26252334861606386</v>
+        <v>0.260825267447784</v>
       </c>
       <c r="G8">
-        <v>0.1343054489639294</v>
+        <v>0.13844973138910208</v>
       </c>
       <c r="H8">
-        <v>0.80482102547565304</v>
+        <v>0.80345049983876171</v>
       </c>
       <c r="I8">
-        <v>4343</v>
+        <v>4353</v>
       </c>
       <c r="J8">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="K8">
-        <v>5640</v>
+        <v>5613</v>
       </c>
       <c r="L8">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="M8">
         <v>1535</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -562,133 +903,134 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>0.760910171506198</v>
+        <v>0.74562744099167944</v>
       </c>
       <c r="C10">
-        <v>0.85095932463545665</v>
+        <v>0.86538756715272447</v>
       </c>
       <c r="D10">
-        <v>0.82190022010271457</v>
+        <v>0.83352315869400151</v>
       </c>
       <c r="E10">
-        <v>0.79746835443037978</v>
+        <v>0.79007847533632292</v>
       </c>
       <c r="F10">
-        <v>0.239089828493802</v>
+        <v>0.25437255900832062</v>
       </c>
       <c r="G10">
-        <v>0.14904067536454335</v>
+        <v>0.13461243284727553</v>
       </c>
       <c r="H10">
-        <v>0.80820702999032568</v>
+        <v>0.80852950661077072</v>
       </c>
       <c r="I10">
-        <v>4481</v>
+        <v>4391</v>
       </c>
       <c r="J10">
-        <v>971</v>
+        <v>877</v>
       </c>
       <c r="K10">
-        <v>5544</v>
+        <v>5638</v>
       </c>
       <c r="L10">
-        <v>1408</v>
+        <v>1498</v>
       </c>
       <c r="M10">
         <v>1359</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M10"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="true"/>
-    <col min="2" max="2" width="4.42578125" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="5.140625" customWidth="true"/>
-    <col min="10" max="10" width="5.140625" customWidth="true"/>
-    <col min="11" max="11" width="5.140625" customWidth="true"/>
-    <col min="12" max="12" width="5.140625" customWidth="true"/>
-    <col min="13" max="13" width="5.140625" customWidth="true"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="8">
         <v>0.53348382242287429</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8">
         <v>0.53348382242287429</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -706,27 +1048,28 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.53348382242287429</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>0.53348382242287429</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -744,106 +1087,106 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.83064516129032262</v>
-      </c>
-      <c r="C4">
-        <v>0.70521861777150918</v>
-      </c>
-      <c r="D4">
-        <v>0.71132596685082872</v>
-      </c>
-      <c r="E4">
-        <v>0.82644628099173556</v>
-      </c>
-      <c r="F4">
-        <v>0.16935483870967741</v>
-      </c>
-      <c r="G4">
-        <v>0.29478138222849082</v>
-      </c>
-      <c r="H4">
-        <v>0.76373212942061697</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.46651617757712566</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.46651617757712566</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1030</v>
+        <v>1240</v>
       </c>
       <c r="J4">
-        <v>418</v>
+        <v>1418</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1240</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.46651617757712566</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.46651617757712566</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.53348382242287429</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>0.53348382242287429</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1418</v>
+      </c>
+      <c r="L5">
         <v>1240</v>
       </c>
-      <c r="J5">
-        <v>1418</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.53348382242287429</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <v>0.53348382242287429</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -861,106 +1204,106 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.82822580645161292</v>
-      </c>
-      <c r="C7">
-        <v>0.57122708039492243</v>
-      </c>
-      <c r="D7">
-        <v>0.62813455657492356</v>
-      </c>
-      <c r="E7">
-        <v>0.7917888563049853</v>
-      </c>
-      <c r="F7">
-        <v>0.17177419354838711</v>
-      </c>
-      <c r="G7">
-        <v>0.42877291960507757</v>
-      </c>
-      <c r="H7">
-        <v>0.69112114371708055</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.46651617757712566</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.46651617757712566</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1027</v>
+        <v>1240</v>
       </c>
       <c r="J7">
-        <v>608</v>
+        <v>1418</v>
       </c>
       <c r="K7">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>379</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.46651617757712566</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.46651617757712566</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.53348382242287429</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>0.53348382242287429</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1418</v>
+      </c>
+      <c r="L8">
         <v>1240</v>
       </c>
-      <c r="J8">
-        <v>1418</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
         <v>0.53348382242287429</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>0.53348382242287429</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -978,158 +1321,225 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.8403225806451613</v>
-      </c>
-      <c r="C10">
-        <v>0.65021156558533144</v>
-      </c>
-      <c r="D10">
-        <v>0.67750325097529263</v>
-      </c>
-      <c r="E10">
-        <v>0.82321428571428568</v>
-      </c>
-      <c r="F10">
-        <v>0.1596774193548387</v>
-      </c>
-      <c r="G10">
-        <v>0.34978843441466856</v>
-      </c>
-      <c r="H10">
-        <v>0.73890142964635064</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.77313769751693007</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.8241935483870968</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.72849083215796895</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.72636815920398012</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.82573940847322147</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.17580645161290323</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.27150916784203105</v>
       </c>
       <c r="I10">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="J10">
-        <v>496</v>
+        <v>385</v>
       </c>
       <c r="K10">
-        <v>922</v>
+        <v>1033</v>
       </c>
       <c r="L10">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M10">
         <v>492</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M10"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="true"/>
-    <col min="2" max="2" width="4.42578125" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="4.140625" customWidth="true"/>
-    <col min="10" max="10" width="4.140625" customWidth="true"/>
-    <col min="11" max="11" width="5.140625" customWidth="true"/>
-    <col min="12" max="12" width="5.140625" customWidth="true"/>
-    <col min="13" max="13" width="5.140625" customWidth="true"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" customWidth="1"/>
+    <col min="11" max="13" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.73970473970473971</v>
+      <c r="B2" s="3">
+        <v>0.75369075369075367</v>
       </c>
       <c r="C2">
-        <v>0.84828592268417213</v>
+        <v>0.84172137126185265</v>
       </c>
       <c r="D2">
-        <v>0.82068965517241377</v>
+        <v>0.81718618365627638</v>
       </c>
       <c r="E2">
-        <v>0.77636849132176233</v>
+        <v>0.78450033990482659</v>
       </c>
       <c r="F2">
-        <v>0.26029526029526029</v>
+        <v>0.2463092463092463</v>
       </c>
       <c r="G2">
-        <v>0.15171407731582787</v>
+        <v>0.15827862873814733</v>
       </c>
       <c r="H2">
-        <v>0.79571106094808131</v>
+        <v>0.79909706546275394</v>
       </c>
       <c r="I2">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="J2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K2">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="L2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="M2">
         <v>322</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3">
@@ -1163,52 +1573,52 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.74669774669774669</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.73815073815073817</v>
       </c>
       <c r="C4">
-        <v>0.85047410649161193</v>
+        <v>0.86287381473377101</v>
       </c>
       <c r="D4">
-        <v>0.82418524871355059</v>
+        <v>0.83479789103690683</v>
       </c>
       <c r="E4">
-        <v>0.78150134048257369</v>
+        <v>0.77828947368421053</v>
       </c>
       <c r="F4">
-        <v>0.25330225330225331</v>
+        <v>0.26184926184926183</v>
       </c>
       <c r="G4">
-        <v>0.14952589350838805</v>
+        <v>0.13712618526622902</v>
       </c>
       <c r="H4">
-        <v>0.80022573363431149</v>
+        <v>0.80248306997742669</v>
       </c>
       <c r="I4">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="J4">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K4">
-        <v>1166</v>
+        <v>1183</v>
       </c>
       <c r="L4">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="M4">
         <v>299</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5">
@@ -1242,11 +1652,11 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6">
@@ -1280,93 +1690,93 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.69463869463869465</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.85392385392385395</v>
       </c>
       <c r="C7">
-        <v>0.79868708971553615</v>
+        <v>0.43909555069292489</v>
       </c>
       <c r="D7">
-        <v>0.76410256410256405</v>
+        <v>0.58832976445396146</v>
       </c>
       <c r="E7">
-        <v>0.73588709677419351</v>
+        <v>0.76202531645569616</v>
       </c>
       <c r="F7">
-        <v>0.30536130536130535</v>
+        <v>0.14607614607614608</v>
       </c>
       <c r="G7">
-        <v>0.20131291028446391</v>
+        <v>0.56090444930707517</v>
       </c>
       <c r="H7">
-        <v>0.74830699774266363</v>
+        <v>0.63995485327313772</v>
       </c>
       <c r="I7">
-        <v>894</v>
+        <v>1099</v>
       </c>
       <c r="J7">
-        <v>276</v>
+        <v>769</v>
       </c>
       <c r="K7">
-        <v>1095</v>
+        <v>602</v>
       </c>
       <c r="L7">
-        <v>393</v>
+        <v>188</v>
       </c>
       <c r="M7">
         <v>379</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.73271173271173273</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.73581973581973581</v>
       </c>
       <c r="C8">
-        <v>0.85485047410649162</v>
+        <v>0.85193289569657182</v>
       </c>
       <c r="D8">
-        <v>0.8257443082311734</v>
+        <v>0.82347826086956522</v>
       </c>
       <c r="E8">
-        <v>0.77308707124010556</v>
+        <v>0.77453580901856767</v>
       </c>
       <c r="F8">
-        <v>0.26728826728826727</v>
+        <v>0.26418026418026419</v>
       </c>
       <c r="G8">
-        <v>0.14514952589350838</v>
+        <v>0.14806710430342815</v>
       </c>
       <c r="H8">
         <v>0.79571106094808131</v>
       </c>
       <c r="I8">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="J8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K8">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="L8">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M8">
         <v>341</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9">
@@ -1400,47 +1810,48 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.76223776223776218</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.73970473970473971</v>
       </c>
       <c r="C10">
-        <v>0.84026258205689275</v>
+        <v>0.85849744711889131</v>
       </c>
       <c r="D10">
-        <v>0.8175</v>
+        <v>0.83071553228621287</v>
       </c>
       <c r="E10">
-        <v>0.79012345679012341</v>
+        <v>0.77843915343915349</v>
       </c>
       <c r="F10">
-        <v>0.23776223776223776</v>
+        <v>0.26029526029526029</v>
       </c>
       <c r="G10">
-        <v>0.15973741794310722</v>
+        <v>0.14150255288110869</v>
       </c>
       <c r="H10">
-        <v>0.80248306997742669</v>
+        <v>0.80097817908201652</v>
       </c>
       <c r="I10">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="J10">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K10">
-        <v>1152</v>
+        <v>1177</v>
       </c>
       <c r="L10">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M10">
         <v>294</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>